--- a/tests/eindhoven-500/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_Auto_OV.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_Auto_OV.xlsx
@@ -966,7 +966,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>304.978444662604</v>
+        <v>304.9784446626039</v>
       </c>
       <c r="C36">
         <v>384.0398951684816</v>
@@ -2054,7 +2054,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>272.5283575174681</v>
+        <v>272.528357517468</v>
       </c>
       <c r="C100">
         <v>253.0934346969993</v>
@@ -3210,7 +3210,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>28.70595937903686</v>
+        <v>28.70595937903685</v>
       </c>
       <c r="C168">
         <v>29.67987444524203</v>
@@ -3635,7 +3635,7 @@
         <v>192</v>
       </c>
       <c r="B193">
-        <v>670.3028886138347</v>
+        <v>670.3028886138346</v>
       </c>
       <c r="C193">
         <v>469.2072892158433</v>
@@ -8123,7 +8123,7 @@
         <v>456</v>
       </c>
       <c r="B457">
-        <v>6.206828828112013</v>
+        <v>6.206828828112012</v>
       </c>
       <c r="C457">
         <v>6.184578592418299</v>
@@ -8140,7 +8140,7 @@
         <v>457</v>
       </c>
       <c r="B458">
-        <v>30.25829053704607</v>
+        <v>30.25829053704606</v>
       </c>
       <c r="C458">
         <v>40.19976085071894</v>
@@ -8174,7 +8174,7 @@
         <v>459</v>
       </c>
       <c r="B460">
-        <v>31.03414414056007</v>
+        <v>31.03414414056006</v>
       </c>
       <c r="C460">
         <v>37.10747155450979</v>
@@ -8378,7 +8378,7 @@
         <v>471</v>
       </c>
       <c r="B472">
-        <v>8.534389638654019</v>
+        <v>8.534389638654018</v>
       </c>
       <c r="C472">
         <v>7.730723240522874</v>
